--- a/SingleSpark/graph to work/ResultAnalysis.xlsx
+++ b/SingleSpark/graph to work/ResultAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\(3) Semester 2 July 2018\COMP90019_Distributed Computing Project\SparkNN\SingleSpark\graph to work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F324BF74-D97F-4EBD-95C7-AF5F9D7AA8A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C872F-9F69-415B-8321-126E4797140A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4530" xr2:uid="{E0EE9E96-DDC1-4AF5-9FCB-F9F05CAED2F9}"/>
   </bookViews>
@@ -6860,7 +6860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA09043-FB3D-478D-BB44-0FB14C96F887}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
